--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.904217</v>
+        <v>33.43904566666667</v>
       </c>
       <c r="H2">
-        <v>56.71265100000001</v>
+        <v>100.317137</v>
       </c>
       <c r="I2">
-        <v>0.3376032603366536</v>
+        <v>0.5629652610385096</v>
       </c>
       <c r="J2">
-        <v>0.3376032603366536</v>
+        <v>0.5629652610385097</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N2">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O2">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P2">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q2">
-        <v>7.455186742827668</v>
+        <v>4.852484819221221</v>
       </c>
       <c r="R2">
-        <v>67.09668068544902</v>
+        <v>43.672363372991</v>
       </c>
       <c r="S2">
-        <v>0.1327891506470384</v>
+        <v>0.07928114269697131</v>
       </c>
       <c r="T2">
-        <v>0.1327891506470384</v>
+        <v>0.07928114269697134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.904217</v>
+        <v>33.43904566666667</v>
       </c>
       <c r="H3">
-        <v>56.71265100000001</v>
+        <v>100.317137</v>
       </c>
       <c r="I3">
-        <v>0.3376032603366536</v>
+        <v>0.5629652610385096</v>
       </c>
       <c r="J3">
-        <v>0.3376032603366536</v>
+        <v>0.5629652610385097</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q3">
-        <v>0.8221822057640001</v>
+        <v>1.454330974134667</v>
       </c>
       <c r="R3">
-        <v>7.399639851876001</v>
+        <v>13.088978767212</v>
       </c>
       <c r="S3">
-        <v>0.01464441878475342</v>
+        <v>0.02376123280845226</v>
       </c>
       <c r="T3">
-        <v>0.01464441878475342</v>
+        <v>0.02376123280845226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.904217</v>
+        <v>33.43904566666667</v>
       </c>
       <c r="H4">
-        <v>56.71265100000001</v>
+        <v>100.317137</v>
       </c>
       <c r="I4">
-        <v>0.3376032603366536</v>
+        <v>0.5629652610385096</v>
       </c>
       <c r="J4">
-        <v>0.3376032603366536</v>
+        <v>0.5629652610385097</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N4">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q4">
-        <v>10.676704773043</v>
+        <v>28.15005869166133</v>
       </c>
       <c r="R4">
-        <v>96.09034295738701</v>
+        <v>253.350528224952</v>
       </c>
       <c r="S4">
-        <v>0.1901696909048618</v>
+        <v>0.4599228855330861</v>
       </c>
       <c r="T4">
-        <v>0.1901696909048618</v>
+        <v>0.4599228855330862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>64.264793</v>
       </c>
       <c r="I5">
-        <v>0.3825602093906729</v>
+        <v>0.3606447218168795</v>
       </c>
       <c r="J5">
-        <v>0.3825602093906728</v>
+        <v>0.3606447218168795</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N5">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O5">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P5">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q5">
-        <v>8.447956925945224</v>
+        <v>3.108580864333222</v>
       </c>
       <c r="R5">
-        <v>76.031612333507</v>
+        <v>27.977227778999</v>
       </c>
       <c r="S5">
-        <v>0.1504720221768109</v>
+        <v>0.05078879219035451</v>
       </c>
       <c r="T5">
-        <v>0.1504720221768109</v>
+        <v>0.05078879219035452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>64.264793</v>
       </c>
       <c r="I6">
-        <v>0.3825602093906729</v>
+        <v>0.3606447218168795</v>
       </c>
       <c r="J6">
-        <v>0.3825602093906728</v>
+        <v>0.3606447218168795</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q6">
         <v>0.9316681257186668</v>
@@ -827,10 +827,10 @@
         <v>8.385013131468</v>
       </c>
       <c r="S6">
-        <v>0.01659454328466306</v>
+        <v>0.01522183301403421</v>
       </c>
       <c r="T6">
-        <v>0.01659454328466306</v>
+        <v>0.01522183301403422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>64.264793</v>
       </c>
       <c r="I7">
-        <v>0.3825602093906729</v>
+        <v>0.3606447218168795</v>
       </c>
       <c r="J7">
-        <v>0.3825602093906728</v>
+        <v>0.3606447218168795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N7">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q7">
-        <v>12.09846850858233</v>
+        <v>18.03338640692533</v>
       </c>
       <c r="R7">
-        <v>108.886216577241</v>
+        <v>162.300477662328</v>
       </c>
       <c r="S7">
-        <v>0.2154936439291989</v>
+        <v>0.2946340966124908</v>
       </c>
       <c r="T7">
-        <v>0.2154936439291989</v>
+        <v>0.2946340966124908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6843913333333335</v>
+        <v>0.5400056666666667</v>
       </c>
       <c r="H8">
-        <v>2.053174</v>
+        <v>1.620017</v>
       </c>
       <c r="I8">
-        <v>0.01222228593120164</v>
+        <v>0.009091301053496209</v>
       </c>
       <c r="J8">
-        <v>0.01222228593120164</v>
+        <v>0.009091301053496209</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N8">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O8">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P8">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q8">
-        <v>0.2699009006917779</v>
+        <v>0.07836256231455556</v>
       </c>
       <c r="R8">
-        <v>2.429108106226001</v>
+        <v>0.705263060831</v>
       </c>
       <c r="S8">
-        <v>0.004807379425634369</v>
+        <v>0.001280307660180926</v>
       </c>
       <c r="T8">
-        <v>0.004807379425634369</v>
+        <v>0.001280307660180926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6843913333333335</v>
+        <v>0.5400056666666667</v>
       </c>
       <c r="H9">
-        <v>2.053174</v>
+        <v>1.620017</v>
       </c>
       <c r="I9">
-        <v>0.01222228593120164</v>
+        <v>0.009091301053496209</v>
       </c>
       <c r="J9">
-        <v>0.01222228593120164</v>
+        <v>0.009091301053496209</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q9">
-        <v>0.02976554786933334</v>
+        <v>0.02348592645466667</v>
       </c>
       <c r="R9">
-        <v>0.267889930824</v>
+        <v>0.211373338092</v>
       </c>
       <c r="S9">
-        <v>0.0005301734156981537</v>
+        <v>0.0003837190956780436</v>
       </c>
       <c r="T9">
-        <v>0.0005301734156981536</v>
+        <v>0.0003837190956780436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6843913333333335</v>
+        <v>0.5400056666666667</v>
       </c>
       <c r="H10">
-        <v>2.053174</v>
+        <v>1.620017</v>
       </c>
       <c r="I10">
-        <v>0.01222228593120164</v>
+        <v>0.009091301053496209</v>
       </c>
       <c r="J10">
-        <v>0.01222228593120164</v>
+        <v>0.009091301053496209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N10">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q10">
-        <v>0.3865298528486668</v>
+        <v>0.4545940503813334</v>
       </c>
       <c r="R10">
-        <v>3.478768675638</v>
+        <v>4.091346453432</v>
       </c>
       <c r="S10">
-        <v>0.006884733089869115</v>
+        <v>0.00742727429763724</v>
       </c>
       <c r="T10">
-        <v>0.006884733089869114</v>
+        <v>0.00742727429763724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.05468533333333</v>
+        <v>2.881522666666667</v>
       </c>
       <c r="H11">
-        <v>42.164056</v>
+        <v>8.644568</v>
       </c>
       <c r="I11">
-        <v>0.2509973087771411</v>
+        <v>0.04851206509895859</v>
       </c>
       <c r="J11">
-        <v>0.2509973087771411</v>
+        <v>0.04851206509895859</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N11">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O11">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P11">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q11">
-        <v>5.542694721060445</v>
+        <v>0.4181502407582222</v>
       </c>
       <c r="R11">
-        <v>49.88425248954401</v>
+        <v>3.763352166824</v>
       </c>
       <c r="S11">
-        <v>0.09872451887453053</v>
+        <v>0.006831845980230396</v>
       </c>
       <c r="T11">
-        <v>0.09872451887453053</v>
+        <v>0.006831845980230397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.05468533333333</v>
+        <v>2.881522666666667</v>
       </c>
       <c r="H12">
-        <v>42.164056</v>
+        <v>8.644568</v>
       </c>
       <c r="I12">
-        <v>0.2509973087771411</v>
+        <v>0.04851206509895859</v>
       </c>
       <c r="J12">
-        <v>0.2509973087771411</v>
+        <v>0.04851206509895859</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.130476</v>
       </c>
       <c r="O12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q12">
-        <v>0.6112663745173333</v>
+        <v>0.1253231838186667</v>
       </c>
       <c r="R12">
-        <v>5.501397370656001</v>
+        <v>1.127908654368</v>
       </c>
       <c r="S12">
-        <v>0.01088766056321005</v>
+        <v>0.002047562349955188</v>
       </c>
       <c r="T12">
-        <v>0.01088766056321005</v>
+        <v>0.002047562349955188</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.05468533333333</v>
+        <v>2.881522666666667</v>
       </c>
       <c r="H13">
-        <v>42.164056</v>
+        <v>8.644568</v>
       </c>
       <c r="I13">
-        <v>0.2509973087771411</v>
+        <v>0.04851206509895859</v>
       </c>
       <c r="J13">
-        <v>0.2509973087771411</v>
+        <v>0.04851206509895859</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N13">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q13">
-        <v>7.937791127874667</v>
+        <v>2.425757989525334</v>
       </c>
       <c r="R13">
-        <v>71.440120150872</v>
+        <v>21.831821905728</v>
       </c>
       <c r="S13">
-        <v>0.1413851293394005</v>
+        <v>0.03963265676877301</v>
       </c>
       <c r="T13">
-        <v>0.1413851293394005</v>
+        <v>0.03963265676877301</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.525581</v>
+        <v>0.4104343333333333</v>
       </c>
       <c r="H14">
-        <v>1.576743</v>
+        <v>1.231303</v>
       </c>
       <c r="I14">
-        <v>0.009386152262799284</v>
+        <v>0.006909894316586209</v>
       </c>
       <c r="J14">
-        <v>0.009386152262799284</v>
+        <v>0.006909894316586209</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N14">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O14">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P14">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q14">
-        <v>0.2072714518396667</v>
+        <v>0.05955990465877777</v>
       </c>
       <c r="R14">
-        <v>1.865443066557</v>
+        <v>0.536039141929</v>
       </c>
       <c r="S14">
-        <v>0.003691845823935531</v>
+        <v>0.000973105012418854</v>
       </c>
       <c r="T14">
-        <v>0.003691845823935531</v>
+        <v>0.0009731050124188542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.525581</v>
+        <v>0.4104343333333333</v>
       </c>
       <c r="H15">
-        <v>1.576743</v>
+        <v>1.231303</v>
       </c>
       <c r="I15">
-        <v>0.009386152262799284</v>
+        <v>0.006909894316586209</v>
       </c>
       <c r="J15">
-        <v>0.009386152262799284</v>
+        <v>0.006909894316586209</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.130476</v>
       </c>
       <c r="O15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q15">
-        <v>0.022858568852</v>
+        <v>0.01785061002533334</v>
       </c>
       <c r="R15">
-        <v>0.205727119668</v>
+        <v>0.160655490228</v>
       </c>
       <c r="S15">
-        <v>0.0004071487472509167</v>
+        <v>0.0002916478491680409</v>
       </c>
       <c r="T15">
-        <v>0.0004071487472509167</v>
+        <v>0.0002916478491680409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.525581</v>
+        <v>0.4104343333333333</v>
       </c>
       <c r="H16">
-        <v>1.576743</v>
+        <v>1.231303</v>
       </c>
       <c r="I16">
-        <v>0.009386152262799284</v>
+        <v>0.006909894316586209</v>
       </c>
       <c r="J16">
-        <v>0.009386152262799284</v>
+        <v>0.006909894316586209</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N16">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q16">
-        <v>0.296837111599</v>
+        <v>0.3455167556986667</v>
       </c>
       <c r="R16">
-        <v>2.671534004391</v>
+        <v>3.109650801288</v>
       </c>
       <c r="S16">
-        <v>0.005287157691612837</v>
+        <v>0.005645141454999314</v>
       </c>
       <c r="T16">
-        <v>0.005287157691612837</v>
+        <v>0.005645141454999314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4048903333333333</v>
+        <v>0.7054563333333334</v>
       </c>
       <c r="H17">
-        <v>1.214671</v>
+        <v>2.116369</v>
       </c>
       <c r="I17">
-        <v>0.007230783301531492</v>
+        <v>0.0118767566755699</v>
       </c>
       <c r="J17">
-        <v>0.007230783301531492</v>
+        <v>0.0118767566755699</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N17">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O17">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P17">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q17">
-        <v>0.1596751161587778</v>
+        <v>0.1023718255074444</v>
       </c>
       <c r="R17">
-        <v>1.437076045429</v>
+        <v>0.9213464295670001</v>
       </c>
       <c r="S17">
-        <v>0.00284407671941819</v>
+        <v>0.001672577165838041</v>
       </c>
       <c r="T17">
-        <v>0.00284407671941819</v>
+        <v>0.001672577165838042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4048903333333333</v>
+        <v>0.7054563333333334</v>
       </c>
       <c r="H18">
-        <v>1.214671</v>
+        <v>2.116369</v>
       </c>
       <c r="I18">
-        <v>0.007230783301531492</v>
+        <v>0.0118767566755699</v>
       </c>
       <c r="J18">
-        <v>0.007230783301531492</v>
+        <v>0.0118767566755699</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.130476</v>
       </c>
       <c r="O18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q18">
-        <v>0.01760949037733333</v>
+        <v>0.03068170684933334</v>
       </c>
       <c r="R18">
-        <v>0.158485413396</v>
+        <v>0.276135361644</v>
       </c>
       <c r="S18">
-        <v>0.0003136540171556292</v>
+        <v>0.0005012856030529589</v>
       </c>
       <c r="T18">
-        <v>0.0003136540171556292</v>
+        <v>0.0005012856030529591</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4048903333333333</v>
+        <v>0.7054563333333334</v>
       </c>
       <c r="H19">
-        <v>1.214671</v>
+        <v>2.116369</v>
       </c>
       <c r="I19">
-        <v>0.007230783301531492</v>
+        <v>0.0118767566755699</v>
       </c>
       <c r="J19">
-        <v>0.007230783301531492</v>
+        <v>0.0118767566755699</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N19">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q19">
-        <v>0.2286735575696666</v>
+        <v>0.5938757160026668</v>
       </c>
       <c r="R19">
-        <v>2.058062018127</v>
+        <v>5.344881444024001</v>
       </c>
       <c r="S19">
-        <v>0.004073052564957673</v>
+        <v>0.009702893906678896</v>
       </c>
       <c r="T19">
-        <v>0.004073052564957673</v>
+        <v>0.009702893906678898</v>
       </c>
     </row>
   </sheetData>
